--- a/inputs/dummy_transactions.xlsx
+++ b/inputs/dummy_transactions.xlsx
@@ -2152,7 +2152,7 @@
         <v>45383</v>
       </c>
       <c r="B29" t="n">
-        <v>63519.015625</v>
+        <v>64979.890625</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2168,13 +2168,13 @@
         <v>50000</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7871658511710445</v>
+        <v>0.7694688236480853</v>
       </c>
       <c r="G29" t="n">
         <v>0.7009314831808753</v>
       </c>
       <c r="H29" t="n">
-        <v>48.74888449705314</v>
+        <v>48.73118746953018</v>
       </c>
       <c r="I29" t="n">
         <v>50000</v>
@@ -2189,22 +2189,22 @@
         <v>1399952.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1778532.4375</v>
+        <v>1819436.9375</v>
       </c>
       <c r="N29" t="n">
-        <v>3096481.156069639</v>
+        <v>3166547.231796442</v>
       </c>
       <c r="O29" t="n">
-        <v>1696528.656069639</v>
+        <v>1766594.731796442</v>
       </c>
       <c r="P29" t="n">
-        <v>0.2118472991545346</v>
+        <v>0.2618961941897611</v>
       </c>
       <c r="Q29" t="n">
-        <v>33238.46205357143</v>
+        <v>33290.63616071428</v>
       </c>
       <c r="R29" t="n">
-        <v>3096481.156069639</v>
+        <v>3166547.231796442</v>
       </c>
     </row>
     <row r="30">
@@ -3828,7 +3828,7 @@
         <v>45383</v>
       </c>
       <c r="B57" t="n">
-        <v>3107.296142578125</v>
+        <v>3149.029052734375</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3844,13 +3844,13 @@
         <v>50000</v>
       </c>
       <c r="F57" t="n">
-        <v>16.09116019386391</v>
+        <v>15.87791003597882</v>
       </c>
       <c r="G57" t="n">
         <v>13.70667973084579</v>
       </c>
       <c r="H57" t="n">
-        <v>750.5765384812895</v>
+        <v>750.3632883234045</v>
       </c>
       <c r="I57" t="n">
         <v>50000</v>
@@ -3865,22 +3865,22 @@
         <v>1399952.5</v>
       </c>
       <c r="M57" t="n">
-        <v>87004.2919921875</v>
+        <v>88172.8134765625</v>
       </c>
       <c r="N57" t="n">
-        <v>2332263.582732553</v>
+        <v>2362915.795035701</v>
       </c>
       <c r="O57" t="n">
-        <v>932311.0827325527</v>
+        <v>962963.2950357012</v>
       </c>
       <c r="P57" t="n">
-        <v>-0.3340409172935849</v>
+        <v>-0.3121457370620065</v>
       </c>
       <c r="Q57" t="n">
-        <v>2059.251944405692</v>
+        <v>2060.742405482701</v>
       </c>
       <c r="R57" t="n">
-        <v>2332263.582732553</v>
+        <v>2362915.795035701</v>
       </c>
     </row>
     <row r="58">
@@ -5504,7 +5504,7 @@
         <v>45383</v>
       </c>
       <c r="B85" t="n">
-        <v>78.17352294921875</v>
+        <v>84.17572784423828</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -5520,13 +5520,13 @@
         <v>10000</v>
       </c>
       <c r="F85" t="n">
-        <v>639.6027467315222</v>
+        <v>593.9954578417397</v>
       </c>
       <c r="G85" t="n">
         <v>475.3601667822499</v>
       </c>
       <c r="H85" t="n">
-        <v>18337.9011883168</v>
+        <v>18292.29389942702</v>
       </c>
       <c r="I85" t="n">
         <v>50000</v>
@@ -5541,22 +5541,22 @@
         <v>1399952.5</v>
       </c>
       <c r="M85" t="n">
-        <v>2188.858642578125</v>
+        <v>2356.920379638672</v>
       </c>
       <c r="N85" t="n">
-        <v>1433538.339385389</v>
+        <v>1539767.152924989</v>
       </c>
       <c r="O85" t="n">
-        <v>33585.83938538935</v>
+        <v>139814.6529249889</v>
       </c>
       <c r="P85" t="n">
-        <v>-0.9760093007545689</v>
+        <v>-0.9001290022875855</v>
       </c>
       <c r="Q85" t="n">
-        <v>80.89561571393695</v>
+        <v>81.10998017447335</v>
       </c>
       <c r="R85" t="n">
-        <v>1433538.339385389</v>
+        <v>1539767.152924989</v>
       </c>
     </row>
     <row r="86">
@@ -7180,7 +7180,7 @@
         <v>45383</v>
       </c>
       <c r="B113" t="n">
-        <v>35.41981506347656</v>
+        <v>37.03510284423828</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -7196,13 +7196,13 @@
         <v>10000</v>
       </c>
       <c r="F113" t="n">
-        <v>1411.639216929676</v>
+        <v>1350.070505009512</v>
       </c>
       <c r="G113" t="n">
         <v>924.0363083553829</v>
       </c>
       <c r="H113" t="n">
-        <v>72144.34918617921</v>
+        <v>72082.78047425905</v>
       </c>
       <c r="I113" t="n">
         <v>50000</v>
@@ -7217,22 +7217,22 @@
         <v>1399952.5</v>
       </c>
       <c r="M113" t="n">
-        <v>991.7548217773436</v>
+        <v>1036.982879638672</v>
       </c>
       <c r="N113" t="n">
-        <v>2555339.506049343</v>
+        <v>2669593.188162835</v>
       </c>
       <c r="O113" t="n">
-        <v>1155387.006049343</v>
+        <v>1269640.688162835</v>
       </c>
       <c r="P113" t="n">
-        <v>-0.1746955657071626</v>
+        <v>-0.09308302377199595</v>
       </c>
       <c r="Q113" t="n">
-        <v>29.3195424761091</v>
+        <v>29.37723132542201</v>
       </c>
       <c r="R113" t="n">
-        <v>2555339.506049343</v>
+        <v>2669593.188162835</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/dummy_transactions.xlsx
+++ b/inputs/dummy_transactions.xlsx
@@ -2152,7 +2152,7 @@
         <v>45383</v>
       </c>
       <c r="B29" t="n">
-        <v>64979.890625</v>
+        <v>64978.13671875</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2168,13 +2168,13 @@
         <v>50000</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7694688236480853</v>
+        <v>0.7694895933445883</v>
       </c>
       <c r="G29" t="n">
         <v>0.7009314831808753</v>
       </c>
       <c r="H29" t="n">
-        <v>48.73118746953018</v>
+        <v>48.73120823922668</v>
       </c>
       <c r="I29" t="n">
         <v>50000</v>
@@ -2189,22 +2189,22 @@
         <v>1399952.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1819436.9375</v>
+        <v>1819387.828125</v>
       </c>
       <c r="N29" t="n">
-        <v>3166547.231796442</v>
+        <v>3166463.111438348</v>
       </c>
       <c r="O29" t="n">
-        <v>1766594.731796442</v>
+        <v>1766510.611438348</v>
       </c>
       <c r="P29" t="n">
-        <v>0.2618961941897611</v>
+        <v>0.261836106180994</v>
       </c>
       <c r="Q29" t="n">
-        <v>33290.63616071428</v>
+        <v>33290.57352120536</v>
       </c>
       <c r="R29" t="n">
-        <v>3166547.231796442</v>
+        <v>3166463.111438348</v>
       </c>
     </row>
     <row r="30">
@@ -3828,7 +3828,7 @@
         <v>45383</v>
       </c>
       <c r="B57" t="n">
-        <v>3149.029052734375</v>
+        <v>3156.71240234375</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3844,13 +3844,13 @@
         <v>50000</v>
       </c>
       <c r="F57" t="n">
-        <v>15.87791003597882</v>
+        <v>15.83926364748234</v>
       </c>
       <c r="G57" t="n">
         <v>13.70667973084579</v>
       </c>
       <c r="H57" t="n">
-        <v>750.3632883234045</v>
+        <v>750.324641934908</v>
       </c>
       <c r="I57" t="n">
         <v>50000</v>
@@ -3865,22 +3865,22 @@
         <v>1399952.5</v>
       </c>
       <c r="M57" t="n">
-        <v>88172.8134765625</v>
+        <v>88387.947265625</v>
       </c>
       <c r="N57" t="n">
-        <v>2362915.795035701</v>
+        <v>2368559.102980057</v>
       </c>
       <c r="O57" t="n">
-        <v>962963.2950357012</v>
+        <v>968606.6029800572</v>
       </c>
       <c r="P57" t="n">
-        <v>-0.3121457370620065</v>
+        <v>-0.3081146660475571</v>
       </c>
       <c r="Q57" t="n">
-        <v>2060.742405482701</v>
+        <v>2061.016810825893</v>
       </c>
       <c r="R57" t="n">
-        <v>2362915.795035701</v>
+        <v>2368559.102980057</v>
       </c>
     </row>
     <row r="58">
@@ -5504,7 +5504,7 @@
         <v>45383</v>
       </c>
       <c r="B85" t="n">
-        <v>84.17572784423828</v>
+        <v>84.43917846679688</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -5520,13 +5520,13 @@
         <v>10000</v>
       </c>
       <c r="F85" t="n">
-        <v>593.9954578417397</v>
+        <v>592.1421892997333</v>
       </c>
       <c r="G85" t="n">
         <v>475.3601667822499</v>
       </c>
       <c r="H85" t="n">
-        <v>18292.29389942702</v>
+        <v>18290.44063088502</v>
       </c>
       <c r="I85" t="n">
         <v>50000</v>
@@ -5541,22 +5541,22 @@
         <v>1399952.5</v>
       </c>
       <c r="M85" t="n">
-        <v>2356.920379638672</v>
+        <v>2364.296997070312</v>
       </c>
       <c r="N85" t="n">
-        <v>1539767.152924989</v>
+        <v>1544429.780667653</v>
       </c>
       <c r="O85" t="n">
-        <v>139814.6529249889</v>
+        <v>144477.2806676526</v>
       </c>
       <c r="P85" t="n">
-        <v>-0.9001290022875855</v>
+        <v>-0.8967984408987786</v>
       </c>
       <c r="Q85" t="n">
-        <v>81.10998017447335</v>
+        <v>81.11938912527901</v>
       </c>
       <c r="R85" t="n">
-        <v>1539767.152924989</v>
+        <v>1544429.780667653</v>
       </c>
     </row>
     <row r="86">
@@ -7180,7 +7180,7 @@
         <v>45383</v>
       </c>
       <c r="B113" t="n">
-        <v>37.03510284423828</v>
+        <v>37.20795059204102</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -7196,13 +7196,13 @@
         <v>10000</v>
       </c>
       <c r="F113" t="n">
-        <v>1350.070505009512</v>
+        <v>1343.798817306946</v>
       </c>
       <c r="G113" t="n">
         <v>924.0363083553829</v>
       </c>
       <c r="H113" t="n">
-        <v>72082.78047425905</v>
+        <v>72076.50878655649</v>
       </c>
       <c r="I113" t="n">
         <v>50000</v>
@@ -7217,22 +7217,22 @@
         <v>1399952.5</v>
       </c>
       <c r="M113" t="n">
-        <v>1036.982879638672</v>
+        <v>1041.822616577148</v>
       </c>
       <c r="N113" t="n">
-        <v>2669593.188162835</v>
+        <v>2681819.177777004</v>
       </c>
       <c r="O113" t="n">
-        <v>1269640.688162835</v>
+        <v>1281866.677777004</v>
       </c>
       <c r="P113" t="n">
-        <v>-0.09308302377199595</v>
+        <v>-0.0843498777444206</v>
       </c>
       <c r="Q113" t="n">
-        <v>29.37723132542201</v>
+        <v>29.38340445927211</v>
       </c>
       <c r="R113" t="n">
-        <v>2669593.188162835</v>
+        <v>2681819.177777004</v>
       </c>
     </row>
   </sheetData>
